--- a/template.xlsx
+++ b/template.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issad\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC18A1DA-6DCD-4D8A-8A1E-4D548E10737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,32 +25,36 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>CUSTOMERS NAME</t>
+  </si>
+  <si>
+    <t>ORDER NO</t>
+  </si>
+  <si>
+    <t>VOL @20</t>
+  </si>
+  <si>
+    <t>VOL @OBS</t>
+  </si>
+  <si>
     <t>TRUCK NO</t>
   </si>
   <si>
-    <t>ORDER NO</t>
-  </si>
-  <si>
     <t>LOADING DEPOT</t>
-  </si>
-  <si>
-    <t>CUSTOMERS NAME</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>VOL @OBS</t>
-  </si>
-  <si>
-    <t>VOL @20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +69,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,24 +111,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,40 +423,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>